--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Base de dados"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Pagina</t>
   </si>
@@ -166,19 +166,19 @@
     <t>Page 0</t>
   </si>
   <si>
-    <t>2000101612, 0044108909</t>
-  </si>
-  <si>
-    <t>JARDIM , 15698, DO ESPIRITO SANTO , S/N</t>
+    <t>0044108909, 2000101612</t>
+  </si>
+  <si>
+    <t>DO ESPIRITO SANTO , S/N, JARDIM , 15698</t>
   </si>
   <si>
     <t>SAO MIGUEL, VILA ESPERANCA</t>
   </si>
   <si>
-    <t>SAAE CAXIAS, POCO ARTESIANO VILA ESPERANCA CAXIAS</t>
-  </si>
-  <si>
-    <t>0202409096594631, 0202409096486293</t>
+    <t>POCO ARTESIANO VILA ESPERANCA CAXIAS, SAAE CAXIAS</t>
+  </si>
+  <si>
+    <t>0202409096486293, 0202409096594631</t>
   </si>
   <si>
     <t>05, 07</t>
@@ -187,13 +187,13 @@
     <t>5038411600, 7013600601</t>
   </si>
   <si>
-    <t>B3, B3</t>
+    <t>B3</t>
   </si>
   <si>
     <t>1,00, 3,00</t>
   </si>
   <si>
-    <t>26/09/2024, 25/09/2024</t>
+    <t>25/09/2024, 26/09/2024</t>
   </si>
   <si>
     <t>30, 32</t>
@@ -205,25 +205,28 @@
     <t>20/09/2024</t>
   </si>
   <si>
-    <t>29.44, 0.00</t>
-  </si>
-  <si>
-    <t>22.96, 0.00</t>
-  </si>
-  <si>
-    <t>Medidor, Medidor</t>
-  </si>
-  <si>
-    <t>Cte., Cte.</t>
+    <t>('0.00', '22,0000', '0.00'), ('29.44', '22,0000', '6.48')</t>
+  </si>
+  <si>
+    <t>('0.00', '2,5363', '0.00'), ('22.96', '2,5363', '0.58')</t>
+  </si>
+  <si>
+    <t>('0.00', '0,5489', '0.00'), ('22.96', '0,5489', '0.13')</t>
+  </si>
+  <si>
+    <t>Medidor</t>
+  </si>
+  <si>
+    <t>Cte.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Leit., Leit.</t>
-  </si>
-  <si>
-    <t>Faturado, Faturado</t>
+    <t>Leit.</t>
+  </si>
+  <si>
+    <t>Faturado</t>
   </si>
   <si>
     <t>30,00</t>
@@ -235,10 +238,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -254,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,29 +272,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -293,10 +310,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -334,71 +351,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,53 +437,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -478,7 +494,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -487,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -496,7 +512,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,10 +520,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -536,7 +552,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -549,12 +565,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -572,68 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="2" width="11.862142857142858" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,153 +745,153 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:49">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="U2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>67</v>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="443">
   <si>
     <t>Página-Arquivo</t>
   </si>
@@ -58,7 +58,124 @@
     <t>Data Leitura Atual</t>
   </si>
   <si>
-    <t xml:space="preserve"> P0 - A1</t>
+    <t xml:space="preserve"> P1 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P2 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P3 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P4 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P5 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P6 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P7 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P8 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P9 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P10 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P11 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P12 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P13 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P14 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P15 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P16 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P17 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P18 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P19 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P20 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P21 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P22 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P23 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P24 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P25 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P26 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P27 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P28 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P29 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P30 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P31 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P32 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P33 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P34 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P35 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P36 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P37 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P38 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P39 - A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P40 - A1</t>
   </si>
   <si>
     <t>2000101612</t>
@@ -67,30 +184,1023 @@
     <t>0044108909</t>
   </si>
   <si>
+    <t>0007961839</t>
+  </si>
+  <si>
+    <t>0007972423</t>
+  </si>
+  <si>
+    <t>0034273472</t>
+  </si>
+  <si>
+    <t>2000101793</t>
+  </si>
+  <si>
+    <t>0008091382</t>
+  </si>
+  <si>
+    <t>0008131040</t>
+  </si>
+  <si>
+    <t>0040890971</t>
+  </si>
+  <si>
+    <t>0008130221</t>
+  </si>
+  <si>
+    <t>2000372823</t>
+  </si>
+  <si>
+    <t>2000772981</t>
+  </si>
+  <si>
+    <t>0008055688</t>
+  </si>
+  <si>
+    <t>0008159696</t>
+  </si>
+  <si>
+    <t>0007879199</t>
+  </si>
+  <si>
+    <t>2000235871</t>
+  </si>
+  <si>
+    <t>0040891048</t>
+  </si>
+  <si>
+    <t>2000211371</t>
+  </si>
+  <si>
+    <t>0031605091</t>
+  </si>
+  <si>
+    <t>0030607104</t>
+  </si>
+  <si>
+    <t>2000353372</t>
+  </si>
+  <si>
+    <t>2000560655</t>
+  </si>
+  <si>
+    <t>0036436921</t>
+  </si>
+  <si>
+    <t>0008188548</t>
+  </si>
+  <si>
+    <t>0045190595</t>
+  </si>
+  <si>
+    <t>0032557597</t>
+  </si>
+  <si>
+    <t>0037044768</t>
+  </si>
+  <si>
+    <t>2000353371</t>
+  </si>
+  <si>
+    <t>2000113723</t>
+  </si>
+  <si>
+    <t>0045782859</t>
+  </si>
+  <si>
+    <t>2000097586</t>
+  </si>
+  <si>
+    <t>0041564989</t>
+  </si>
+  <si>
+    <t>0008095310</t>
+  </si>
+  <si>
+    <t>0008163219</t>
+  </si>
+  <si>
+    <t>0033688962</t>
+  </si>
+  <si>
+    <t>0036642076</t>
+  </si>
+  <si>
+    <t>0034881189</t>
+  </si>
+  <si>
+    <t>0036365196</t>
+  </si>
+  <si>
+    <t>0045593630</t>
+  </si>
+  <si>
+    <t>2000071777</t>
+  </si>
+  <si>
+    <t>2000446376</t>
+  </si>
+  <si>
+    <t>0007976445</t>
+  </si>
+  <si>
+    <t>0040897917</t>
+  </si>
+  <si>
+    <t>0037409251</t>
+  </si>
+  <si>
+    <t>2000422094</t>
+  </si>
+  <si>
+    <t>0045190498</t>
+  </si>
+  <si>
+    <t>2000396269</t>
+  </si>
+  <si>
+    <t>2000088785</t>
+  </si>
+  <si>
+    <t>2000070509</t>
+  </si>
+  <si>
+    <t>0008058768</t>
+  </si>
+  <si>
+    <t>0007924593</t>
+  </si>
+  <si>
+    <t>0040897925</t>
+  </si>
+  <si>
+    <t>0007934645</t>
+  </si>
+  <si>
+    <t>0007915233</t>
+  </si>
+  <si>
+    <t>0007929072</t>
+  </si>
+  <si>
+    <t>0007920601</t>
+  </si>
+  <si>
+    <t>0031174309</t>
+  </si>
+  <si>
+    <t>0007945299</t>
+  </si>
+  <si>
+    <t>2000043879</t>
+  </si>
+  <si>
+    <t>0036754141</t>
+  </si>
+  <si>
+    <t>0036754265</t>
+  </si>
+  <si>
+    <t>2000119975</t>
+  </si>
+  <si>
+    <t>2000775054</t>
+  </si>
+  <si>
+    <t>0034888388</t>
+  </si>
+  <si>
+    <t>0007975333</t>
+  </si>
+  <si>
+    <t>0035350420</t>
+  </si>
+  <si>
+    <t>0036642025</t>
+  </si>
+  <si>
+    <t>0043707825</t>
+  </si>
+  <si>
+    <t>0036641967</t>
+  </si>
+  <si>
+    <t>0035757392</t>
+  </si>
+  <si>
+    <t>0008094810</t>
+  </si>
+  <si>
+    <t>2000510215</t>
+  </si>
+  <si>
+    <t>0033187394</t>
+  </si>
+  <si>
+    <t>0040891099</t>
+  </si>
+  <si>
+    <t>0042748382</t>
+  </si>
+  <si>
+    <t>0042983373</t>
+  </si>
+  <si>
+    <t>0008087776</t>
+  </si>
+  <si>
+    <t>2000965353</t>
+  </si>
+  <si>
+    <t>0032864635</t>
+  </si>
+  <si>
+    <t>0035757376</t>
+  </si>
+  <si>
     <t>JARDIM , 15698</t>
   </si>
   <si>
     <t>DO ESPIRITO SANTO , S/N</t>
   </si>
   <si>
+    <t>25 DEZEMBRO , S/N</t>
+  </si>
+  <si>
+    <t>IGREJA , S/N</t>
+  </si>
+  <si>
+    <t>MARIA ROSARIO , S/N</t>
+  </si>
+  <si>
+    <t>OLHO D AGUA , S/N</t>
+  </si>
+  <si>
+    <t>FERROVIA , 560</t>
+  </si>
+  <si>
+    <t>PIRAJA , S/N</t>
+  </si>
+  <si>
+    <t>DEP J RESENDE , 1</t>
+  </si>
+  <si>
+    <t>PAULISTAO , 490</t>
+  </si>
+  <si>
+    <t>SANTO AMARO , S/N</t>
+  </si>
+  <si>
+    <t>SANTANA DE ZE GAIBA , S/N</t>
+  </si>
+  <si>
+    <t>DO FIO , S/N</t>
+  </si>
+  <si>
+    <t>POV CABECEIRA CAVAL , S/N</t>
+  </si>
+  <si>
+    <t>PRES DUTRA , S/N</t>
+  </si>
+  <si>
+    <t>CENTRAL , S/N</t>
+  </si>
+  <si>
+    <t>BR 316 , 1</t>
+  </si>
+  <si>
+    <t>PV CARRO VELHO , S/N</t>
+  </si>
+  <si>
+    <t>4 , 1743</t>
+  </si>
+  <si>
+    <t>CAJAZEIRAS , S/N</t>
+  </si>
+  <si>
+    <t>BREJINHO , S/N</t>
+  </si>
+  <si>
+    <t>BR 316 , S/N</t>
+  </si>
+  <si>
+    <t>PRINCIPAL , S/N</t>
+  </si>
+  <si>
+    <t>BARROS , S/N</t>
+  </si>
+  <si>
+    <t>PERIMETRAL EUGENIO COUTINHO , S/N</t>
+  </si>
+  <si>
+    <t>BARRIGUDA , S/N</t>
+  </si>
+  <si>
+    <t>TERRA DURA , 20</t>
+  </si>
+  <si>
+    <t>BARRA DA TEREZA , S/N</t>
+  </si>
+  <si>
+    <t>AEROPORTO , 15839</t>
+  </si>
+  <si>
+    <t>1 , S/N</t>
+  </si>
+  <si>
+    <t>ROSARIO , 15645</t>
+  </si>
+  <si>
+    <t>CRISTIANO BARBOSA , S/N</t>
+  </si>
+  <si>
+    <t>MORRO SANTA , S/N</t>
+  </si>
+  <si>
+    <t>BOCA MATA , 328</t>
+  </si>
+  <si>
+    <t>SENADOR C CARDOSO , S/N</t>
+  </si>
+  <si>
+    <t>AEROPORTO , S/N</t>
+  </si>
+  <si>
+    <t>DA PEDREIRA VI , S/N</t>
+  </si>
+  <si>
+    <t>SAO MARTINHO II , S/N</t>
+  </si>
+  <si>
+    <t>LAGOA DOS PRETOS , 15328</t>
+  </si>
+  <si>
+    <t>ALOISIO LOBO , S/N</t>
+  </si>
+  <si>
+    <t>EVANGELISTA JOSE DA SILVA , S/N</t>
+  </si>
+  <si>
+    <t>JOSE GRACI , S/N</t>
+  </si>
+  <si>
+    <t>CARMOSINA COUTINHO , S/N</t>
+  </si>
+  <si>
+    <t>MOISES , S/N</t>
+  </si>
+  <si>
+    <t>MARRUA , S/N</t>
+  </si>
+  <si>
+    <t>CAXIRIMBU , 15553</t>
+  </si>
+  <si>
+    <t>MULATA , 15315</t>
+  </si>
+  <si>
+    <t>VENEZA III , S/N</t>
+  </si>
+  <si>
+    <t>STO ANTONIO I , S/N</t>
+  </si>
+  <si>
+    <t>STO ANTONIO , S/N</t>
+  </si>
+  <si>
+    <t>SAO VICENTE PAULA , S/N</t>
+  </si>
+  <si>
+    <t>FREI SERAFIM , 1862</t>
+  </si>
+  <si>
+    <t>WILTON LOBO , S/N</t>
+  </si>
+  <si>
+    <t>SAO JORGE , S/N</t>
+  </si>
+  <si>
+    <t>BENJAMIN COSTA , S/N</t>
+  </si>
+  <si>
+    <t>GENIPAPEIROS , 15048</t>
+  </si>
+  <si>
+    <t>SALVADOR BARBOSA , S/N</t>
+  </si>
+  <si>
+    <t>CRUZEIRO , S/N</t>
+  </si>
+  <si>
+    <t>GOIABEIRAS , 15928</t>
+  </si>
+  <si>
+    <t>BOA VISTA , S/N</t>
+  </si>
+  <si>
+    <t>RITA QUEIROZ , S/N</t>
+  </si>
+  <si>
+    <t>SAO JOSE , S/N</t>
+  </si>
+  <si>
+    <t>BOM JARDIM , S/N</t>
+  </si>
+  <si>
+    <t>15 DE NOVEMBRO , S/N</t>
+  </si>
+  <si>
+    <t>10 , S/N</t>
+  </si>
+  <si>
+    <t>PEDREIRA , S/N</t>
+  </si>
+  <si>
+    <t>SOSSEGO II , S/N</t>
+  </si>
+  <si>
+    <t>MORROS , S/N</t>
+  </si>
+  <si>
+    <t>BR , S/N</t>
+  </si>
+  <si>
+    <t>SULINA , 1</t>
+  </si>
+  <si>
+    <t>FABIO GENTIL , S/N</t>
+  </si>
+  <si>
+    <t>TAMARINEIRO , S/N</t>
+  </si>
+  <si>
+    <t>A , 01</t>
+  </si>
+  <si>
+    <t>JOAO PAULO II , S/N</t>
+  </si>
+  <si>
+    <t>FERROVIA , S/N</t>
+  </si>
+  <si>
     <t>SAO MIGUEL</t>
   </si>
   <si>
     <t>VILA ESPERANCA</t>
   </si>
   <si>
+    <t>SIRIEMA</t>
+  </si>
+  <si>
+    <t>SAO FRANCISCO</t>
+  </si>
+  <si>
+    <t>CAMPO BELEM</t>
+  </si>
+  <si>
+    <t>OLHO D AGUA</t>
+  </si>
+  <si>
+    <t>CALDEIROES</t>
+  </si>
+  <si>
+    <t>PIRAJA</t>
+  </si>
+  <si>
+    <t>SALOBRO</t>
+  </si>
+  <si>
+    <t>SANTO AMARO</t>
+  </si>
+  <si>
+    <t>SANTANA DE ZE GAIBA</t>
+  </si>
+  <si>
+    <t>ITAPECURUZINHO</t>
+  </si>
+  <si>
+    <t>RURAL</t>
+  </si>
+  <si>
+    <t>NOVA CAXIAS</t>
+  </si>
+  <si>
+    <t>PAI GERALDO</t>
+  </si>
+  <si>
+    <t>COHAB</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>BAUNILHA</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL VL PARAISO</t>
+  </si>
+  <si>
+    <t>LARANJEIRA</t>
+  </si>
+  <si>
+    <t>TESO DURO</t>
+  </si>
+  <si>
+    <t>VL SAO JOAO</t>
+  </si>
+  <si>
+    <t>CANGALHEIRO</t>
+  </si>
+  <si>
+    <t>SAO MARTINHO</t>
+  </si>
+  <si>
+    <t>LAGOA DOS PRETOS</t>
+  </si>
+  <si>
+    <t>LUIZA QUEIROZ</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>FUMO VERDE</t>
+  </si>
+  <si>
+    <t>JOAO VIANA</t>
+  </si>
+  <si>
+    <t>MUTIRAO</t>
+  </si>
+  <si>
+    <t>JOSE CASTRO</t>
+  </si>
+  <si>
+    <t>REFINARIA</t>
+  </si>
+  <si>
+    <t>POV BAU</t>
+  </si>
+  <si>
+    <t>BACURIZEIRO</t>
+  </si>
+  <si>
+    <t>BOM JARDIM</t>
+  </si>
+  <si>
+    <t>ANTENOR VIANA</t>
+  </si>
+  <si>
+    <t>MORROS</t>
+  </si>
+  <si>
+    <t>TAMARINEIRO</t>
+  </si>
+  <si>
+    <t>CALDEIRAO</t>
+  </si>
+  <si>
     <t>SAAE CAXIAS</t>
   </si>
   <si>
     <t>POCO ARTESIANO VILA ESPERANCA CAXIAS</t>
   </si>
   <si>
+    <t>S A A E SIRIEMA</t>
+  </si>
+  <si>
+    <t>S A A E SAO FRANCISCO</t>
+  </si>
+  <si>
+    <t>POÇO ARTESIANO CAMPO BELEM CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO DO SAAE POV OLHO D AGUA</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO CALDEIROES CAXIAS</t>
+  </si>
+  <si>
+    <t>S A A E PIRAJA</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO SALOBRO CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO PIRAJA CAXIAS</t>
+  </si>
+  <si>
+    <t>POÇO ARTESIANO SANTO AMARO</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO DO PV SANTANA DE ZE GAIBA</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>S A A E CONJ RES DO SESI</t>
+  </si>
+  <si>
+    <t>ETE 2018 VALE DO SOL</t>
+  </si>
+  <si>
+    <t>PV CARRO VELHO POCO DO SAAE</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO COHAB CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO RURAL POV BARRIGUDA</t>
+  </si>
+  <si>
+    <t>POÇO ARTESIANO POV BREJUNHO</t>
+  </si>
+  <si>
+    <t>POCO DO SAAE</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO BAUNILHA TIMON AREA RURAL</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO RURAL POV ESTREITO</t>
+  </si>
+  <si>
+    <t>RUA 05 BLOCO F</t>
+  </si>
+  <si>
+    <t>PT 048 POV BARRIGUDA</t>
+  </si>
+  <si>
+    <t>POCO SAAE</t>
+  </si>
+  <si>
+    <t>POÇO ARTESIANO - POV SAO MIGUEL</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO SIRIEMA CAXIAS</t>
+  </si>
+  <si>
+    <t>POÇO ARTESIANO TESO DURO CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO DO SAAE LOCALIZADO NO POVOADO ROSA</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO TESO DURO CAXIAS</t>
+  </si>
+  <si>
+    <t>MORRO DA SANTA</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO CENTRO BOCA DA MATA DE CA</t>
+  </si>
+  <si>
+    <t>ESTACAO DE TRATAMENTO DE AGUA</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO SAO FRANCISCO CAXIAS</t>
+  </si>
+  <si>
+    <t>PROX AO PG 1081619</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO LAGOA DOS PRETOS POV OURO</t>
+  </si>
+  <si>
+    <t>POCO POV SAO MARTINS</t>
+  </si>
+  <si>
+    <t>S A A E TESO DURO</t>
+  </si>
+  <si>
+    <t>BAIRRO LUIZA QUEIROZ</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO LUIZA QUEIROZ CAXIAS</t>
+  </si>
+  <si>
+    <t>POÇO VILA PARAISO CARMOSINA BLOCO 71</t>
+  </si>
+  <si>
+    <t>BLOCO C</t>
+  </si>
+  <si>
+    <t>POCO SAAE MARRUA</t>
+  </si>
+  <si>
+    <t>RUA DO CENTRINHO</t>
+  </si>
+  <si>
+    <t>POVOADO MULATAS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO FUMO VERDE CAXIAS</t>
+  </si>
+  <si>
+    <t>N 02 JOAO VIANA</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO JOAO VIANA CAXIAS</t>
+  </si>
+  <si>
+    <t>S A A E N 01 MUTIRAO</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO NOVA CAXIAS CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO JOSE CASTRO CAXIAS</t>
+  </si>
+  <si>
+    <t>S A A E PAI GERALDO</t>
+  </si>
+  <si>
+    <t>POCO POV JENIPAPO</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO MUTIRAO CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO REFINARIA CAXIAS</t>
+  </si>
+  <si>
+    <t>localizado no povoado goiabeira</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO PV BAUZINHO</t>
+  </si>
+  <si>
+    <t>S A A E BACURIZEIRO</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO ANTENOR VIANA CAXIAS</t>
+  </si>
+  <si>
+    <t>ALTO DO SOSSEGO</t>
+  </si>
+  <si>
+    <t>POÇO POVOADO MORROS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO RURAL CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO TAMARINEIRO CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO 3 DISTRITO CAXIAS</t>
+  </si>
+  <si>
+    <t>SAAE</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO CAMPO BELEM CAXIAS</t>
+  </si>
+  <si>
+    <t>POCO ARTESIANO CALDEIRAO CAXIAS</t>
+  </si>
+  <si>
     <t>0202409096594631</t>
   </si>
   <si>
     <t>0202409096486293</t>
   </si>
   <si>
+    <t>0202409095689279</t>
+  </si>
+  <si>
+    <t>0202409095689282</t>
+  </si>
+  <si>
+    <t>0202409096696785</t>
+  </si>
+  <si>
+    <t>0202409094358550</t>
+  </si>
+  <si>
+    <t>0202409096591006</t>
+  </si>
+  <si>
+    <t>0202409096591014</t>
+  </si>
+  <si>
+    <t>0202409096710749</t>
+  </si>
+  <si>
+    <t>0202409096288396</t>
+  </si>
+  <si>
+    <t>0202409096288412</t>
+  </si>
+  <si>
+    <t>0202409096288422</t>
+  </si>
+  <si>
+    <t>0202409094759001</t>
+  </si>
+  <si>
+    <t>0202409094759022</t>
+  </si>
+  <si>
+    <t>0202409095545174</t>
+  </si>
+  <si>
+    <t>0202409095545202</t>
+  </si>
+  <si>
+    <t>0202409096710795</t>
+  </si>
+  <si>
+    <t>0202409094229152</t>
+  </si>
+  <si>
+    <t>0202409095092037</t>
+  </si>
+  <si>
+    <t>0202409095569137</t>
+  </si>
+  <si>
+    <t>0202409095569157</t>
+  </si>
+  <si>
+    <t>0202409096154463</t>
+  </si>
+  <si>
+    <t>0202409096154452</t>
+  </si>
+  <si>
+    <t>0202409094873952</t>
+  </si>
+  <si>
+    <t>0202409094873968</t>
+  </si>
+  <si>
+    <t>0202409094873977</t>
+  </si>
+  <si>
+    <t>0202409094873988</t>
+  </si>
+  <si>
+    <t>0202409096594637</t>
+  </si>
+  <si>
+    <t>0202409095809673</t>
+  </si>
+  <si>
+    <t>0202409096048503</t>
+  </si>
+  <si>
+    <t>0202409096048505</t>
+  </si>
+  <si>
+    <t>0202409096020947</t>
+  </si>
+  <si>
+    <t>0202409096590989</t>
+  </si>
+  <si>
+    <t>0202409096272953</t>
+  </si>
+  <si>
+    <t>0202409096272954</t>
+  </si>
+  <si>
+    <t>0202409095807682</t>
+  </si>
+  <si>
+    <t>0202409095805568</t>
+  </si>
+  <si>
+    <t>0202409095805595</t>
+  </si>
+  <si>
+    <t>0202409094390197</t>
+  </si>
+  <si>
+    <t>0202409094390198</t>
+  </si>
+  <si>
+    <t>0202409094390205</t>
+  </si>
+  <si>
+    <t>0202409096020661</t>
+  </si>
+  <si>
+    <t>0202409094742038</t>
+  </si>
+  <si>
+    <t>0202409094741400</t>
+  </si>
+  <si>
+    <t>0202409094872360</t>
+  </si>
+  <si>
+    <t>0202409094862237</t>
+  </si>
+  <si>
+    <t>0202409095089339</t>
+  </si>
+  <si>
+    <t>0202409095087829</t>
+  </si>
+  <si>
+    <t>0202409095088166</t>
+  </si>
+  <si>
+    <t>0202409095089462</t>
+  </si>
+  <si>
+    <t>0202409095203119</t>
+  </si>
+  <si>
+    <t>0202409095207134</t>
+  </si>
+  <si>
+    <t>0202409095544238</t>
+  </si>
+  <si>
+    <t>0202409095544178</t>
+  </si>
+  <si>
+    <t>0202409095542905</t>
+  </si>
+  <si>
+    <t>0202409095543915</t>
+  </si>
+  <si>
+    <t>0202409095543779</t>
+  </si>
+  <si>
+    <t>0202409095542503</t>
+  </si>
+  <si>
+    <t>0202409095545666</t>
+  </si>
+  <si>
+    <t>0202409095553401</t>
+  </si>
+  <si>
+    <t>0202409095564033</t>
+  </si>
+  <si>
+    <t>0202409095561375</t>
+  </si>
+  <si>
+    <t>0202409095558354</t>
+  </si>
+  <si>
+    <t>0202409095683299</t>
+  </si>
+  <si>
+    <t>0202409095685169</t>
+  </si>
+  <si>
+    <t>0202409095680077</t>
+  </si>
+  <si>
+    <t>0202409095804766</t>
+  </si>
+  <si>
+    <t>0202409095804380</t>
+  </si>
+  <si>
+    <t>0202409095801508</t>
+  </si>
+  <si>
+    <t>0202409095796198</t>
+  </si>
+  <si>
+    <t>0202409096284678</t>
+  </si>
+  <si>
+    <t>0202409096286296</t>
+  </si>
+  <si>
+    <t>0202409096283262</t>
+  </si>
+  <si>
+    <t>0202409096287028</t>
+  </si>
+  <si>
+    <t>0202409096285936</t>
+  </si>
+  <si>
+    <t>0202409096273509</t>
+  </si>
+  <si>
+    <t>0202409096590112</t>
+  </si>
+  <si>
+    <t>0202409096587525</t>
+  </si>
+  <si>
+    <t>0202409096692321</t>
+  </si>
+  <si>
+    <t>0202409096684953</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -103,6 +1213,9 @@
     <t>7013600601</t>
   </si>
   <si>
+    <t>7033600601</t>
+  </si>
+  <si>
     <t>B3</t>
   </si>
   <si>
@@ -118,16 +1231,118 @@
     <t>25/09/2024</t>
   </si>
   <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>28/09/2024</t>
+  </si>
+  <si>
+    <t>04/09/2024</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>10/09/2024</t>
+  </si>
+  <si>
+    <t>14/09/2024</t>
+  </si>
+  <si>
+    <t>03/09/2024</t>
+  </si>
+  <si>
+    <t>12/09/2024</t>
+  </si>
+  <si>
+    <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>18/09/2024</t>
+  </si>
+  <si>
+    <t>19/09/2024</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>13/09/2024</t>
+  </si>
+  <si>
+    <t>27/09/2024</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>21/08/2024</t>
   </si>
   <si>
-    <t>20/09/2024</t>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>26/08/2024</t>
+  </si>
+  <si>
+    <t>30/08/2024</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>13/08/2024</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>22/08/2024</t>
+  </si>
+  <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>14/08/2024</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
   </si>
 </sst>
 </file>
@@ -485,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,43 +1755,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>395</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>397</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>401</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>423</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>429</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -584,37 +1799,3232 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K3" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K4" t="s">
+        <v>405</v>
+      </c>
+      <c r="L4" t="s">
+        <v>424</v>
+      </c>
+      <c r="M4" t="s">
+        <v>430</v>
+      </c>
+      <c r="N4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J5" t="s">
+        <v>402</v>
+      </c>
+      <c r="K5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J6" t="s">
+        <v>402</v>
+      </c>
+      <c r="K6" t="s">
+        <v>406</v>
+      </c>
+      <c r="L6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I7" t="s">
+        <v>400</v>
+      </c>
+      <c r="J7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" t="s">
+        <v>398</v>
+      </c>
+      <c r="I8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8" t="s">
+        <v>403</v>
+      </c>
+      <c r="L8" t="s">
+        <v>426</v>
+      </c>
+      <c r="M8" t="s">
+        <v>432</v>
+      </c>
+      <c r="N8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" t="s">
+        <v>400</v>
+      </c>
+      <c r="J9" t="s">
+        <v>402</v>
+      </c>
+      <c r="K9" t="s">
+        <v>403</v>
+      </c>
+      <c r="L9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" t="s">
+        <v>400</v>
+      </c>
+      <c r="J10" t="s">
+        <v>402</v>
+      </c>
+      <c r="K10" t="s">
+        <v>408</v>
+      </c>
+      <c r="L10" t="s">
+        <v>426</v>
+      </c>
+      <c r="M10" t="s">
+        <v>433</v>
+      </c>
+      <c r="N10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" t="s">
+        <v>409</v>
+      </c>
+      <c r="L11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I12" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L12" t="s">
+        <v>423</v>
+      </c>
+      <c r="M12" t="s">
+        <v>429</v>
+      </c>
+      <c r="N12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" t="s">
+        <v>398</v>
+      </c>
+      <c r="I13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K13" t="s">
+        <v>409</v>
+      </c>
+      <c r="L13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" t="s">
+        <v>402</v>
+      </c>
+      <c r="K14" t="s">
+        <v>410</v>
+      </c>
+      <c r="L14" t="s">
+        <v>427</v>
+      </c>
+      <c r="M14" t="s">
+        <v>434</v>
+      </c>
+      <c r="N14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H15" t="s">
+        <v>398</v>
+      </c>
+      <c r="I15" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15" t="s">
+        <v>410</v>
+      </c>
+      <c r="L15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H16" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" t="s">
+        <v>402</v>
+      </c>
+      <c r="K16" t="s">
+        <v>411</v>
+      </c>
+      <c r="L16" t="s">
+        <v>426</v>
+      </c>
+      <c r="M16" t="s">
+        <v>435</v>
+      </c>
+      <c r="N16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" t="s">
+        <v>396</v>
+      </c>
+      <c r="H17" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" t="s">
+        <v>400</v>
+      </c>
+      <c r="J17" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" t="s">
+        <v>411</v>
+      </c>
+      <c r="L17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" t="s">
+        <v>396</v>
+      </c>
+      <c r="H18" t="s">
+        <v>398</v>
+      </c>
+      <c r="I18" t="s">
+        <v>400</v>
+      </c>
+      <c r="J18" t="s">
+        <v>402</v>
+      </c>
+      <c r="K18" t="s">
+        <v>408</v>
+      </c>
+      <c r="L18" t="s">
+        <v>426</v>
+      </c>
+      <c r="M18" t="s">
+        <v>433</v>
+      </c>
+      <c r="N18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" t="s">
+        <v>332</v>
+      </c>
+      <c r="G19" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19" t="s">
+        <v>398</v>
+      </c>
+      <c r="I19" t="s">
+        <v>400</v>
+      </c>
+      <c r="J19" t="s">
+        <v>401</v>
+      </c>
+      <c r="K19" t="s">
+        <v>412</v>
+      </c>
+      <c r="L19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20" t="s">
+        <v>396</v>
+      </c>
+      <c r="H20" t="s">
+        <v>398</v>
+      </c>
+      <c r="I20" t="s">
+        <v>400</v>
+      </c>
+      <c r="J20" t="s">
+        <v>402</v>
+      </c>
+      <c r="K20" t="s">
+        <v>413</v>
+      </c>
+      <c r="L20" t="s">
+        <v>427</v>
+      </c>
+      <c r="M20" t="s">
+        <v>436</v>
+      </c>
+      <c r="N20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G21" t="s">
+        <v>396</v>
+      </c>
+      <c r="H21" t="s">
+        <v>398</v>
+      </c>
+      <c r="I21" t="s">
+        <v>400</v>
+      </c>
+      <c r="J21" t="s">
+        <v>401</v>
+      </c>
+      <c r="K21" t="s">
+        <v>414</v>
+      </c>
+      <c r="L21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" t="s">
+        <v>396</v>
+      </c>
+      <c r="H22" t="s">
+        <v>398</v>
+      </c>
+      <c r="I22" t="s">
+        <v>400</v>
+      </c>
+      <c r="J22" t="s">
+        <v>401</v>
+      </c>
+      <c r="K22" t="s">
+        <v>414</v>
+      </c>
+      <c r="L22" t="s">
+        <v>426</v>
+      </c>
+      <c r="M22" t="s">
+        <v>435</v>
+      </c>
+      <c r="N22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H23" t="s">
+        <v>398</v>
+      </c>
+      <c r="I23" t="s">
+        <v>400</v>
+      </c>
+      <c r="J23" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24" t="s">
+        <v>396</v>
+      </c>
+      <c r="H24" t="s">
+        <v>398</v>
+      </c>
+      <c r="I24" t="s">
+        <v>400</v>
+      </c>
+      <c r="J24" t="s">
+        <v>401</v>
+      </c>
+      <c r="K24" t="s">
+        <v>415</v>
+      </c>
+      <c r="L24" t="s">
+        <v>424</v>
+      </c>
+      <c r="M24" t="s">
+        <v>430</v>
+      </c>
+      <c r="N24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" t="s">
+        <v>396</v>
+      </c>
+      <c r="H25" t="s">
+        <v>398</v>
+      </c>
+      <c r="I25" t="s">
+        <v>400</v>
+      </c>
+      <c r="J25" t="s">
+        <v>402</v>
+      </c>
+      <c r="K25" t="s">
+        <v>416</v>
+      </c>
+      <c r="L25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" t="s">
+        <v>396</v>
+      </c>
+      <c r="H26" t="s">
+        <v>398</v>
+      </c>
+      <c r="I26" t="s">
+        <v>400</v>
+      </c>
+      <c r="J26" t="s">
+        <v>402</v>
+      </c>
+      <c r="K26" t="s">
+        <v>416</v>
+      </c>
+      <c r="L26" t="s">
+        <v>427</v>
+      </c>
+      <c r="M26" t="s">
+        <v>436</v>
+      </c>
+      <c r="N26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G27" t="s">
+        <v>396</v>
+      </c>
+      <c r="H27" t="s">
+        <v>398</v>
+      </c>
+      <c r="I27" t="s">
+        <v>400</v>
+      </c>
+      <c r="J27" t="s">
+        <v>401</v>
+      </c>
+      <c r="K27" t="s">
+        <v>416</v>
+      </c>
+      <c r="L27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" t="s">
+        <v>341</v>
+      </c>
+      <c r="G28" t="s">
+        <v>396</v>
+      </c>
+      <c r="H28" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" t="s">
+        <v>400</v>
+      </c>
+      <c r="J28" t="s">
+        <v>401</v>
+      </c>
+      <c r="K28" t="s">
+        <v>416</v>
+      </c>
+      <c r="L28" t="s">
+        <v>427</v>
+      </c>
+      <c r="M28" t="s">
+        <v>434</v>
+      </c>
+      <c r="N28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" t="s">
+        <v>396</v>
+      </c>
+      <c r="H29" t="s">
+        <v>399</v>
+      </c>
+      <c r="I29" t="s">
+        <v>400</v>
+      </c>
+      <c r="J29" t="s">
+        <v>401</v>
+      </c>
+      <c r="K29" t="s">
+        <v>403</v>
+      </c>
+      <c r="L29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" t="s">
+        <v>396</v>
+      </c>
+      <c r="H30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I30" t="s">
+        <v>400</v>
+      </c>
+      <c r="J30" t="s">
+        <v>402</v>
+      </c>
+      <c r="K30" t="s">
+        <v>417</v>
+      </c>
+      <c r="L30" t="s">
+        <v>424</v>
+      </c>
+      <c r="M30" t="s">
+        <v>430</v>
+      </c>
+      <c r="N30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H31" t="s">
+        <v>399</v>
+      </c>
+      <c r="I31" t="s">
+        <v>400</v>
+      </c>
+      <c r="J31" t="s">
+        <v>402</v>
+      </c>
+      <c r="K31" t="s">
+        <v>418</v>
+      </c>
+      <c r="L31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" t="s">
+        <v>276</v>
+      </c>
+      <c r="F32" t="s">
+        <v>345</v>
+      </c>
+      <c r="G32" t="s">
+        <v>396</v>
+      </c>
+      <c r="H32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I32" t="s">
+        <v>400</v>
+      </c>
+      <c r="J32" t="s">
+        <v>401</v>
+      </c>
+      <c r="K32" t="s">
+        <v>418</v>
+      </c>
+      <c r="L32" t="s">
+        <v>424</v>
+      </c>
+      <c r="M32" t="s">
+        <v>430</v>
+      </c>
+      <c r="N32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" t="s">
+        <v>346</v>
+      </c>
+      <c r="G33" t="s">
+        <v>396</v>
+      </c>
+      <c r="H33" t="s">
+        <v>398</v>
+      </c>
+      <c r="I33" t="s">
+        <v>400</v>
+      </c>
+      <c r="J33" t="s">
+        <v>402</v>
+      </c>
+      <c r="K33" t="s">
+        <v>418</v>
+      </c>
+      <c r="L33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
+        <v>278</v>
+      </c>
+      <c r="F34" t="s">
+        <v>347</v>
+      </c>
+      <c r="G34" t="s">
+        <v>396</v>
+      </c>
+      <c r="H34" t="s">
+        <v>398</v>
+      </c>
+      <c r="I34" t="s">
+        <v>400</v>
+      </c>
+      <c r="J34" t="s">
+        <v>402</v>
+      </c>
+      <c r="K34" t="s">
+        <v>403</v>
+      </c>
+      <c r="L34" t="s">
+        <v>426</v>
+      </c>
+      <c r="M34" t="s">
+        <v>432</v>
+      </c>
+      <c r="N34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" t="s">
+        <v>348</v>
+      </c>
+      <c r="G35" t="s">
+        <v>396</v>
+      </c>
+      <c r="H35" t="s">
+        <v>398</v>
+      </c>
+      <c r="I35" t="s">
+        <v>400</v>
+      </c>
+      <c r="J35" t="s">
+        <v>402</v>
+      </c>
+      <c r="K35" t="s">
+        <v>419</v>
+      </c>
+      <c r="L35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" t="s">
+        <v>349</v>
+      </c>
+      <c r="G36" t="s">
+        <v>396</v>
+      </c>
+      <c r="H36" t="s">
+        <v>398</v>
+      </c>
+      <c r="I36" t="s">
+        <v>400</v>
+      </c>
+      <c r="J36" t="s">
+        <v>402</v>
+      </c>
+      <c r="K36" t="s">
+        <v>419</v>
+      </c>
+      <c r="L36" t="s">
+        <v>424</v>
+      </c>
+      <c r="M36" t="s">
+        <v>437</v>
+      </c>
+      <c r="N36" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" t="s">
+        <v>396</v>
+      </c>
+      <c r="H37" t="s">
+        <v>398</v>
+      </c>
+      <c r="I37" t="s">
+        <v>400</v>
+      </c>
+      <c r="J37" t="s">
+        <v>402</v>
+      </c>
+      <c r="K37" t="s">
+        <v>417</v>
+      </c>
+      <c r="L37" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" t="s">
+        <v>396</v>
+      </c>
+      <c r="H38" t="s">
+        <v>398</v>
+      </c>
+      <c r="I38" t="s">
+        <v>400</v>
+      </c>
+      <c r="J38" t="s">
+        <v>402</v>
+      </c>
+      <c r="K38" t="s">
+        <v>417</v>
+      </c>
+      <c r="L38" t="s">
+        <v>423</v>
+      </c>
+      <c r="M38" t="s">
+        <v>438</v>
+      </c>
+      <c r="N38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>396</v>
+      </c>
+      <c r="H39" t="s">
+        <v>398</v>
+      </c>
+      <c r="I39" t="s">
+        <v>400</v>
+      </c>
+      <c r="J39" t="s">
+        <v>402</v>
+      </c>
+      <c r="K39" t="s">
+        <v>417</v>
+      </c>
+      <c r="L39" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>396</v>
+      </c>
+      <c r="H40" t="s">
+        <v>398</v>
+      </c>
+      <c r="I40" t="s">
+        <v>400</v>
+      </c>
+      <c r="J40" t="s">
+        <v>402</v>
+      </c>
+      <c r="K40" t="s">
+        <v>420</v>
+      </c>
+      <c r="L40" t="s">
+        <v>424</v>
+      </c>
+      <c r="M40" t="s">
+        <v>439</v>
+      </c>
+      <c r="N40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" t="s">
+        <v>396</v>
+      </c>
+      <c r="H41" t="s">
+        <v>398</v>
+      </c>
+      <c r="I41" t="s">
+        <v>400</v>
+      </c>
+      <c r="J41" t="s">
+        <v>401</v>
+      </c>
+      <c r="K41" t="s">
+        <v>420</v>
+      </c>
+      <c r="L41" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" t="s">
+        <v>355</v>
+      </c>
+      <c r="G42" t="s">
+        <v>396</v>
+      </c>
+      <c r="H42" t="s">
+        <v>398</v>
+      </c>
+      <c r="I42" t="s">
+        <v>400</v>
+      </c>
+      <c r="J42" t="s">
+        <v>401</v>
+      </c>
+      <c r="K42" t="s">
+        <v>420</v>
+      </c>
+      <c r="L42" t="s">
+        <v>424</v>
+      </c>
+      <c r="M42" t="s">
+        <v>439</v>
+      </c>
+      <c r="N42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>396</v>
+      </c>
+      <c r="H43" t="s">
+        <v>398</v>
+      </c>
+      <c r="I43" t="s">
+        <v>400</v>
+      </c>
+      <c r="J43" t="s">
+        <v>402</v>
+      </c>
+      <c r="K43" t="s">
+        <v>418</v>
+      </c>
+      <c r="L43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
         <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" t="s">
+        <v>357</v>
+      </c>
+      <c r="G44" t="s">
+        <v>396</v>
+      </c>
+      <c r="H44" t="s">
+        <v>398</v>
+      </c>
+      <c r="I44" t="s">
+        <v>400</v>
+      </c>
+      <c r="J44" t="s">
+        <v>402</v>
+      </c>
+      <c r="K44" t="s">
+        <v>410</v>
+      </c>
+      <c r="L44" t="s">
+        <v>427</v>
+      </c>
+      <c r="M44" t="s">
+        <v>434</v>
+      </c>
+      <c r="N44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45" t="s">
+        <v>358</v>
+      </c>
+      <c r="G45" t="s">
+        <v>396</v>
+      </c>
+      <c r="H45" t="s">
+        <v>398</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>402</v>
+      </c>
+      <c r="K45" t="s">
+        <v>410</v>
+      </c>
+      <c r="L45" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" t="s">
+        <v>288</v>
+      </c>
+      <c r="F46" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" t="s">
+        <v>396</v>
+      </c>
+      <c r="H46" t="s">
+        <v>398</v>
+      </c>
+      <c r="I46" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" t="s">
+        <v>402</v>
+      </c>
+      <c r="K46" t="s">
+        <v>416</v>
+      </c>
+      <c r="L46" t="s">
+        <v>427</v>
+      </c>
+      <c r="M46" t="s">
+        <v>436</v>
+      </c>
+      <c r="N46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" t="s">
+        <v>360</v>
+      </c>
+      <c r="G47" t="s">
+        <v>396</v>
+      </c>
+      <c r="H47" t="s">
+        <v>398</v>
+      </c>
+      <c r="I47" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>416</v>
+      </c>
+      <c r="L47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" t="s">
+        <v>290</v>
+      </c>
+      <c r="F48" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" t="s">
+        <v>396</v>
+      </c>
+      <c r="H48" t="s">
+        <v>398</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>413</v>
+      </c>
+      <c r="L48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" t="s">
+        <v>434</v>
+      </c>
+      <c r="N48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" t="s">
+        <v>362</v>
+      </c>
+      <c r="G49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H49" t="s">
+        <v>398</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>413</v>
+      </c>
+      <c r="L49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" t="s">
+        <v>363</v>
+      </c>
+      <c r="G50" t="s">
+        <v>396</v>
+      </c>
+      <c r="H50" t="s">
+        <v>398</v>
+      </c>
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>413</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="s">
+        <v>434</v>
+      </c>
+      <c r="N50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" t="s">
+        <v>364</v>
+      </c>
+      <c r="G51" t="s">
+        <v>396</v>
+      </c>
+      <c r="H51" t="s">
+        <v>398</v>
+      </c>
+      <c r="I51" t="s">
+        <v>400</v>
+      </c>
+      <c r="J51" t="s">
+        <v>402</v>
+      </c>
+      <c r="K51" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" t="s">
+        <v>294</v>
+      </c>
+      <c r="F52" t="s">
+        <v>365</v>
+      </c>
+      <c r="G52" t="s">
+        <v>396</v>
+      </c>
+      <c r="H52" t="s">
+        <v>398</v>
+      </c>
+      <c r="I52" t="s">
+        <v>400</v>
+      </c>
+      <c r="J52" t="s">
+        <v>402</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s">
+        <v>426</v>
+      </c>
+      <c r="M52" t="s">
+        <v>435</v>
+      </c>
+      <c r="N52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F53" t="s">
+        <v>366</v>
+      </c>
+      <c r="G53" t="s">
+        <v>396</v>
+      </c>
+      <c r="H53" t="s">
+        <v>398</v>
+      </c>
+      <c r="I53" t="s">
+        <v>400</v>
+      </c>
+      <c r="J53" t="s">
+        <v>402</v>
+      </c>
+      <c r="K53" t="s">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" t="s">
+        <v>367</v>
+      </c>
+      <c r="G54" t="s">
+        <v>396</v>
+      </c>
+      <c r="H54" t="s">
+        <v>398</v>
+      </c>
+      <c r="I54" t="s">
+        <v>400</v>
+      </c>
+      <c r="J54" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" t="s">
+        <v>411</v>
+      </c>
+      <c r="L54" t="s">
+        <v>426</v>
+      </c>
+      <c r="M54" t="s">
+        <v>440</v>
+      </c>
+      <c r="N54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F55" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" t="s">
+        <v>396</v>
+      </c>
+      <c r="H55" t="s">
+        <v>398</v>
+      </c>
+      <c r="I55" t="s">
+        <v>400</v>
+      </c>
+      <c r="J55" t="s">
+        <v>402</v>
+      </c>
+      <c r="K55" t="s">
+        <v>411</v>
+      </c>
+      <c r="L55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" t="s">
+        <v>396</v>
+      </c>
+      <c r="H56" t="s">
+        <v>398</v>
+      </c>
+      <c r="I56" t="s">
+        <v>400</v>
+      </c>
+      <c r="J56" t="s">
+        <v>402</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" t="s">
+        <v>440</v>
+      </c>
+      <c r="N56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" t="s">
+        <v>396</v>
+      </c>
+      <c r="H57" t="s">
+        <v>398</v>
+      </c>
+      <c r="I57" t="s">
+        <v>400</v>
+      </c>
+      <c r="J57" t="s">
+        <v>402</v>
+      </c>
+      <c r="K57" t="s">
+        <v>411</v>
+      </c>
+      <c r="L57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" t="s">
+        <v>295</v>
+      </c>
+      <c r="F58" t="s">
+        <v>371</v>
+      </c>
+      <c r="G58" t="s">
+        <v>396</v>
+      </c>
+      <c r="H58" t="s">
+        <v>398</v>
+      </c>
+      <c r="I58" t="s">
+        <v>400</v>
+      </c>
+      <c r="J58" t="s">
+        <v>402</v>
+      </c>
+      <c r="K58" t="s">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s">
+        <v>426</v>
+      </c>
+      <c r="M58" t="s">
+        <v>440</v>
+      </c>
+      <c r="N58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" t="s">
+        <v>299</v>
+      </c>
+      <c r="F59" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" t="s">
+        <v>396</v>
+      </c>
+      <c r="H59" t="s">
+        <v>398</v>
+      </c>
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" t="s">
+        <v>402</v>
+      </c>
+      <c r="K59" t="s">
+        <v>411</v>
+      </c>
+      <c r="L59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" t="s">
+        <v>373</v>
+      </c>
+      <c r="G60" t="s">
+        <v>396</v>
+      </c>
+      <c r="H60" t="s">
+        <v>398</v>
+      </c>
+      <c r="I60" t="s">
+        <v>400</v>
+      </c>
+      <c r="J60" t="s">
+        <v>402</v>
+      </c>
+      <c r="K60" t="s">
+        <v>414</v>
+      </c>
+      <c r="L60" t="s">
+        <v>426</v>
+      </c>
+      <c r="M60" t="s">
+        <v>435</v>
+      </c>
+      <c r="N60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" t="s">
+        <v>396</v>
+      </c>
+      <c r="H61" t="s">
+        <v>398</v>
+      </c>
+      <c r="I61" t="s">
+        <v>400</v>
+      </c>
+      <c r="J61" t="s">
+        <v>402</v>
+      </c>
+      <c r="K61" t="s">
+        <v>414</v>
+      </c>
+      <c r="L61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" t="s">
+        <v>240</v>
+      </c>
+      <c r="E62" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" t="s">
+        <v>375</v>
+      </c>
+      <c r="G62" t="s">
+        <v>396</v>
+      </c>
+      <c r="H62" t="s">
+        <v>398</v>
+      </c>
+      <c r="I62" t="s">
+        <v>400</v>
+      </c>
+      <c r="J62" t="s">
+        <v>402</v>
+      </c>
+      <c r="K62" t="s">
+        <v>414</v>
+      </c>
+      <c r="L62" t="s">
+        <v>424</v>
+      </c>
+      <c r="M62" t="s">
+        <v>441</v>
+      </c>
+      <c r="N62" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" t="s">
+        <v>396</v>
+      </c>
+      <c r="H63" t="s">
+        <v>399</v>
+      </c>
+      <c r="I63" t="s">
+        <v>400</v>
+      </c>
+      <c r="J63" t="s">
+        <v>401</v>
+      </c>
+      <c r="K63" t="s">
+        <v>414</v>
+      </c>
+      <c r="L63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" t="s">
+        <v>304</v>
+      </c>
+      <c r="F64" t="s">
+        <v>377</v>
+      </c>
+      <c r="G64" t="s">
+        <v>396</v>
+      </c>
+      <c r="H64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I64" t="s">
+        <v>400</v>
+      </c>
+      <c r="J64" t="s">
+        <v>401</v>
+      </c>
+      <c r="K64" t="s">
+        <v>414</v>
+      </c>
+      <c r="L64" t="s">
+        <v>426</v>
+      </c>
+      <c r="M64" t="s">
+        <v>435</v>
+      </c>
+      <c r="N64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" t="s">
+        <v>274</v>
+      </c>
+      <c r="F65" t="s">
+        <v>378</v>
+      </c>
+      <c r="G65" t="s">
+        <v>396</v>
+      </c>
+      <c r="H65" t="s">
+        <v>398</v>
+      </c>
+      <c r="I65" t="s">
+        <v>400</v>
+      </c>
+      <c r="J65" t="s">
+        <v>402</v>
+      </c>
+      <c r="K65" t="s">
+        <v>405</v>
+      </c>
+      <c r="L65" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>305</v>
+      </c>
+      <c r="F66" t="s">
+        <v>379</v>
+      </c>
+      <c r="G66" t="s">
+        <v>396</v>
+      </c>
+      <c r="H66" t="s">
+        <v>398</v>
+      </c>
+      <c r="I66" t="s">
+        <v>400</v>
+      </c>
+      <c r="J66" t="s">
+        <v>402</v>
+      </c>
+      <c r="K66" t="s">
+        <v>405</v>
+      </c>
+      <c r="L66" t="s">
+        <v>424</v>
+      </c>
+      <c r="M66" t="s">
+        <v>430</v>
+      </c>
+      <c r="N66" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" t="s">
+        <v>380</v>
+      </c>
+      <c r="G67" t="s">
+        <v>396</v>
+      </c>
+      <c r="H67" t="s">
+        <v>398</v>
+      </c>
+      <c r="I67" t="s">
+        <v>400</v>
+      </c>
+      <c r="J67" t="s">
+        <v>401</v>
+      </c>
+      <c r="K67" t="s">
+        <v>405</v>
+      </c>
+      <c r="L67" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
+        <v>281</v>
+      </c>
+      <c r="F68" t="s">
+        <v>381</v>
+      </c>
+      <c r="G68" t="s">
+        <v>396</v>
+      </c>
+      <c r="H68" t="s">
+        <v>398</v>
+      </c>
+      <c r="I68" t="s">
+        <v>400</v>
+      </c>
+      <c r="J68" t="s">
+        <v>402</v>
+      </c>
+      <c r="K68" t="s">
+        <v>417</v>
+      </c>
+      <c r="L68" t="s">
+        <v>423</v>
+      </c>
+      <c r="M68" t="s">
+        <v>438</v>
+      </c>
+      <c r="N68" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" t="s">
+        <v>382</v>
+      </c>
+      <c r="G69" t="s">
+        <v>396</v>
+      </c>
+      <c r="H69" t="s">
+        <v>399</v>
+      </c>
+      <c r="I69" t="s">
+        <v>400</v>
+      </c>
+      <c r="J69" t="s">
+        <v>402</v>
+      </c>
+      <c r="K69" t="s">
+        <v>417</v>
+      </c>
+      <c r="L69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" t="s">
+        <v>277</v>
+      </c>
+      <c r="F70" t="s">
+        <v>383</v>
+      </c>
+      <c r="G70" t="s">
+        <v>396</v>
+      </c>
+      <c r="H70" t="s">
+        <v>398</v>
+      </c>
+      <c r="I70" t="s">
+        <v>400</v>
+      </c>
+      <c r="J70" t="s">
+        <v>402</v>
+      </c>
+      <c r="K70" t="s">
+        <v>417</v>
+      </c>
+      <c r="L70" t="s">
+        <v>423</v>
+      </c>
+      <c r="M70" t="s">
+        <v>438</v>
+      </c>
+      <c r="N70" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" t="s">
+        <v>384</v>
+      </c>
+      <c r="G71" t="s">
+        <v>396</v>
+      </c>
+      <c r="H71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I71" t="s">
+        <v>400</v>
+      </c>
+      <c r="J71" t="s">
+        <v>402</v>
+      </c>
+      <c r="K71" t="s">
+        <v>417</v>
+      </c>
+      <c r="L71" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" t="s">
+        <v>307</v>
+      </c>
+      <c r="F72" t="s">
+        <v>385</v>
+      </c>
+      <c r="G72" t="s">
+        <v>396</v>
+      </c>
+      <c r="H72" t="s">
+        <v>398</v>
+      </c>
+      <c r="I72" t="s">
+        <v>400</v>
+      </c>
+      <c r="J72" t="s">
+        <v>402</v>
+      </c>
+      <c r="K72" t="s">
+        <v>409</v>
+      </c>
+      <c r="L72" t="s">
+        <v>424</v>
+      </c>
+      <c r="M72" t="s">
+        <v>442</v>
+      </c>
+      <c r="N72" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73" t="s">
+        <v>386</v>
+      </c>
+      <c r="G73" t="s">
+        <v>396</v>
+      </c>
+      <c r="H73" t="s">
+        <v>398</v>
+      </c>
+      <c r="I73" t="s">
+        <v>400</v>
+      </c>
+      <c r="J73" t="s">
+        <v>401</v>
+      </c>
+      <c r="K73" t="s">
+        <v>409</v>
+      </c>
+      <c r="L73" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" t="s">
+        <v>309</v>
+      </c>
+      <c r="F74" t="s">
+        <v>387</v>
+      </c>
+      <c r="G74" t="s">
+        <v>396</v>
+      </c>
+      <c r="H74" t="s">
+        <v>398</v>
+      </c>
+      <c r="I74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74" t="s">
+        <v>402</v>
+      </c>
+      <c r="K74" t="s">
+        <v>409</v>
+      </c>
+      <c r="L74" t="s">
+        <v>424</v>
+      </c>
+      <c r="M74" t="s">
+        <v>442</v>
+      </c>
+      <c r="N74" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" t="s">
+        <v>310</v>
+      </c>
+      <c r="F75" t="s">
+        <v>388</v>
+      </c>
+      <c r="G75" t="s">
+        <v>396</v>
+      </c>
+      <c r="H75" t="s">
+        <v>398</v>
+      </c>
+      <c r="I75" t="s">
+        <v>400</v>
+      </c>
+      <c r="J75" t="s">
+        <v>402</v>
+      </c>
+      <c r="K75" t="s">
+        <v>409</v>
+      </c>
+      <c r="L75" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" t="s">
+        <v>249</v>
+      </c>
+      <c r="F76" t="s">
+        <v>389</v>
+      </c>
+      <c r="G76" t="s">
+        <v>396</v>
+      </c>
+      <c r="H76" t="s">
+        <v>398</v>
+      </c>
+      <c r="I76" t="s">
+        <v>400</v>
+      </c>
+      <c r="J76" t="s">
+        <v>402</v>
+      </c>
+      <c r="K76" t="s">
+        <v>409</v>
+      </c>
+      <c r="L76" t="s">
+        <v>424</v>
+      </c>
+      <c r="M76" t="s">
+        <v>442</v>
+      </c>
+      <c r="N76" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" t="s">
+        <v>311</v>
+      </c>
+      <c r="F77" t="s">
+        <v>390</v>
+      </c>
+      <c r="G77" t="s">
+        <v>396</v>
+      </c>
+      <c r="H77" t="s">
+        <v>399</v>
+      </c>
+      <c r="I77" t="s">
+        <v>400</v>
+      </c>
+      <c r="J77" t="s">
+        <v>402</v>
+      </c>
+      <c r="K77" t="s">
+        <v>409</v>
+      </c>
+      <c r="L77" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" t="s">
+        <v>246</v>
+      </c>
+      <c r="F78" t="s">
+        <v>391</v>
+      </c>
+      <c r="G78" t="s">
+        <v>396</v>
+      </c>
+      <c r="H78" t="s">
+        <v>398</v>
+      </c>
+      <c r="I78" t="s">
+        <v>400</v>
+      </c>
+      <c r="J78" t="s">
+        <v>402</v>
+      </c>
+      <c r="K78" t="s">
+        <v>403</v>
+      </c>
+      <c r="L78" t="s">
+        <v>426</v>
+      </c>
+      <c r="M78" t="s">
+        <v>432</v>
+      </c>
+      <c r="N78" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" t="s">
+        <v>392</v>
+      </c>
+      <c r="G79" t="s">
+        <v>396</v>
+      </c>
+      <c r="H79" t="s">
+        <v>398</v>
+      </c>
+      <c r="I79" t="s">
+        <v>400</v>
+      </c>
+      <c r="J79" t="s">
+        <v>402</v>
+      </c>
+      <c r="K79" t="s">
+        <v>403</v>
+      </c>
+      <c r="L79" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" t="s">
+        <v>313</v>
+      </c>
+      <c r="F80" t="s">
+        <v>393</v>
+      </c>
+      <c r="G80" t="s">
+        <v>396</v>
+      </c>
+      <c r="H80" t="s">
+        <v>398</v>
+      </c>
+      <c r="I80" t="s">
+        <v>400</v>
+      </c>
+      <c r="J80" t="s">
+        <v>402</v>
+      </c>
+      <c r="K80" t="s">
+        <v>422</v>
+      </c>
+      <c r="L80" t="s">
+        <v>425</v>
+      </c>
+      <c r="M80" t="s">
+        <v>431</v>
+      </c>
+      <c r="N80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" t="s">
+        <v>314</v>
+      </c>
+      <c r="F81" t="s">
+        <v>394</v>
+      </c>
+      <c r="G81" t="s">
+        <v>396</v>
+      </c>
+      <c r="H81" t="s">
+        <v>398</v>
+      </c>
+      <c r="I81" t="s">
+        <v>400</v>
+      </c>
+      <c r="J81" t="s">
+        <v>402</v>
+      </c>
+      <c r="K81" t="s">
+        <v>422</v>
+      </c>
+      <c r="L81" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/dados_extraidos.xlsx
+++ b/dados_extraidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="443">
   <si>
     <t>Página-Arquivo</t>
   </si>
@@ -1306,12 +1306,18 @@
     <t>21/08/2024</t>
   </si>
   <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
     <t>16/08/2024</t>
   </si>
   <si>
     <t>29/08/2024</t>
   </si>
   <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
     <t>26/08/2024</t>
   </si>
   <si>
@@ -1324,25 +1330,19 @@
     <t>13/08/2024</t>
   </si>
   <si>
+    <t>14/08/2024</t>
+  </si>
+  <si>
     <t>09/08/2024</t>
   </si>
   <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
     <t>22/08/2024</t>
   </si>
   <si>
-    <t>19/08/2024</t>
-  </si>
-  <si>
-    <t>02/08/2024</t>
-  </si>
-  <si>
-    <t>14/08/2024</t>
-  </si>
-  <si>
     <t>15/08/2024</t>
-  </si>
-  <si>
-    <t>23/08/2024</t>
   </si>
 </sst>
 </file>
@@ -1831,6 +1831,12 @@
       <c r="L3" t="s">
         <v>424</v>
       </c>
+      <c r="M3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N3" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
@@ -1870,7 +1876,7 @@
         <v>424</v>
       </c>
       <c r="M4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N4" t="s">
         <v>405</v>
@@ -1913,6 +1919,12 @@
       <c r="L5" t="s">
         <v>424</v>
       </c>
+      <c r="M5" t="s">
+        <v>431</v>
+      </c>
+      <c r="N5" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
@@ -1952,7 +1964,7 @@
         <v>425</v>
       </c>
       <c r="M6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N6" t="s">
         <v>422</v>
@@ -1995,6 +2007,12 @@
       <c r="L7" t="s">
         <v>424</v>
       </c>
+      <c r="M7" t="s">
+        <v>433</v>
+      </c>
+      <c r="N7" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
@@ -2034,7 +2052,7 @@
         <v>426</v>
       </c>
       <c r="M8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N8" t="s">
         <v>403</v>
@@ -2077,6 +2095,12 @@
       <c r="L9" t="s">
         <v>426</v>
       </c>
+      <c r="M9" t="s">
+        <v>434</v>
+      </c>
+      <c r="N9" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
@@ -2116,7 +2140,7 @@
         <v>426</v>
       </c>
       <c r="M10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N10" t="s">
         <v>408</v>
@@ -2159,6 +2183,12 @@
       <c r="L11" t="s">
         <v>424</v>
       </c>
+      <c r="M11" t="s">
+        <v>430</v>
+      </c>
+      <c r="N11" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
@@ -2241,6 +2271,12 @@
       <c r="L13" t="s">
         <v>423</v>
       </c>
+      <c r="M13" t="s">
+        <v>429</v>
+      </c>
+      <c r="N13" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
@@ -2280,7 +2316,7 @@
         <v>427</v>
       </c>
       <c r="M14" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N14" t="s">
         <v>410</v>
@@ -2323,6 +2359,12 @@
       <c r="L15" t="s">
         <v>427</v>
       </c>
+      <c r="M15" t="s">
+        <v>436</v>
+      </c>
+      <c r="N15" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
@@ -2362,7 +2404,7 @@
         <v>426</v>
       </c>
       <c r="M16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N16" t="s">
         <v>421</v>
@@ -2405,6 +2447,12 @@
       <c r="L17" t="s">
         <v>426</v>
       </c>
+      <c r="M17" t="s">
+        <v>438</v>
+      </c>
+      <c r="N17" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -2444,7 +2492,7 @@
         <v>426</v>
       </c>
       <c r="M18" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N18" t="s">
         <v>408</v>
@@ -2487,6 +2535,12 @@
       <c r="L19" t="s">
         <v>424</v>
       </c>
+      <c r="M19" t="s">
+        <v>433</v>
+      </c>
+      <c r="N19" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -2526,7 +2580,7 @@
         <v>427</v>
       </c>
       <c r="M20" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N20" t="s">
         <v>416</v>
@@ -2569,6 +2623,12 @@
       <c r="L21" t="s">
         <v>426</v>
       </c>
+      <c r="M21" t="s">
+        <v>437</v>
+      </c>
+      <c r="N21" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -2608,7 +2668,7 @@
         <v>426</v>
       </c>
       <c r="M22" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N22" t="s">
         <v>421</v>
@@ -2651,6 +2711,12 @@
       <c r="L23" t="s">
         <v>424</v>
       </c>
+      <c r="M23" t="s">
+        <v>431</v>
+      </c>
+      <c r="N23" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -2690,7 +2756,7 @@
         <v>424</v>
       </c>
       <c r="M24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N24" t="s">
         <v>405</v>
@@ -2733,6 +2799,12 @@
       <c r="L25" t="s">
         <v>427</v>
       </c>
+      <c r="M25" t="s">
+        <v>436</v>
+      </c>
+      <c r="N25" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
@@ -2772,7 +2844,7 @@
         <v>427</v>
       </c>
       <c r="M26" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N26" t="s">
         <v>416</v>
@@ -2815,6 +2887,12 @@
       <c r="L27" t="s">
         <v>427</v>
       </c>
+      <c r="M27" t="s">
+        <v>436</v>
+      </c>
+      <c r="N27" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -2854,7 +2932,7 @@
         <v>427</v>
       </c>
       <c r="M28" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N28" t="s">
         <v>410</v>
@@ -2897,6 +2975,12 @@
       <c r="L29" t="s">
         <v>423</v>
       </c>
+      <c r="M29" t="s">
+        <v>429</v>
+      </c>
+      <c r="N29" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -2936,7 +3020,7 @@
         <v>424</v>
       </c>
       <c r="M30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N30" t="s">
         <v>405</v>
@@ -2979,6 +3063,12 @@
       <c r="L31" t="s">
         <v>423</v>
       </c>
+      <c r="M31" t="s">
+        <v>440</v>
+      </c>
+      <c r="N31" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
@@ -3018,7 +3108,7 @@
         <v>424</v>
       </c>
       <c r="M32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N32" t="s">
         <v>405</v>
@@ -3061,6 +3151,12 @@
       <c r="L33" t="s">
         <v>423</v>
       </c>
+      <c r="M33" t="s">
+        <v>440</v>
+      </c>
+      <c r="N33" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
@@ -3100,7 +3196,7 @@
         <v>426</v>
       </c>
       <c r="M34" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N34" t="s">
         <v>403</v>
@@ -3143,6 +3239,12 @@
       <c r="L35" t="s">
         <v>423</v>
       </c>
+      <c r="M35" t="s">
+        <v>429</v>
+      </c>
+      <c r="N35" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
@@ -3182,7 +3284,7 @@
         <v>424</v>
       </c>
       <c r="M36" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="N36" t="s">
         <v>419</v>
@@ -3225,6 +3327,12 @@
       <c r="L37" t="s">
         <v>423</v>
       </c>
+      <c r="M37" t="s">
+        <v>440</v>
+      </c>
+      <c r="N37" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
@@ -3264,7 +3372,7 @@
         <v>423</v>
       </c>
       <c r="M38" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N38" t="s">
         <v>417</v>
@@ -3307,6 +3415,12 @@
       <c r="L39" t="s">
         <v>423</v>
       </c>
+      <c r="M39" t="s">
+        <v>440</v>
+      </c>
+      <c r="N39" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -3346,7 +3460,7 @@
         <v>424</v>
       </c>
       <c r="M40" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N40" t="s">
         <v>412</v>
@@ -3389,6 +3503,12 @@
       <c r="L41" t="s">
         <v>424</v>
       </c>
+      <c r="M41" t="s">
+        <v>433</v>
+      </c>
+      <c r="N41" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
@@ -3428,7 +3548,7 @@
         <v>424</v>
       </c>
       <c r="M42" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N42" t="s">
         <v>412</v>
@@ -3471,6 +3591,12 @@
       <c r="L43" t="s">
         <v>423</v>
       </c>
+      <c r="M43" t="s">
+        <v>440</v>
+      </c>
+      <c r="N43" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
@@ -3510,7 +3636,7 @@
         <v>427</v>
       </c>
       <c r="M44" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N44" t="s">
         <v>410</v>
@@ -3553,6 +3679,12 @@
       <c r="L45" t="s">
         <v>427</v>
       </c>
+      <c r="M45" t="s">
+        <v>436</v>
+      </c>
+      <c r="N45" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
@@ -3592,7 +3724,7 @@
         <v>427</v>
       </c>
       <c r="M46" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N46" t="s">
         <v>416</v>
@@ -3635,6 +3767,12 @@
       <c r="L47" t="s">
         <v>427</v>
       </c>
+      <c r="M47" t="s">
+        <v>439</v>
+      </c>
+      <c r="N47" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
@@ -3674,7 +3812,7 @@
         <v>427</v>
       </c>
       <c r="M48" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s">
         <v>410</v>
@@ -3717,6 +3855,12 @@
       <c r="L49" t="s">
         <v>427</v>
       </c>
+      <c r="M49" t="s">
+        <v>436</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
@@ -3756,7 +3900,7 @@
         <v>427</v>
       </c>
       <c r="M50" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N50" t="s">
         <v>410</v>
@@ -3799,6 +3943,12 @@
       <c r="L51" t="s">
         <v>427</v>
       </c>
+      <c r="M51" t="s">
+        <v>436</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
@@ -3838,7 +3988,7 @@
         <v>426</v>
       </c>
       <c r="M52" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N52" t="s">
         <v>421</v>
@@ -3881,6 +4031,12 @@
       <c r="L53" t="s">
         <v>426</v>
       </c>
+      <c r="M53" t="s">
+        <v>437</v>
+      </c>
+      <c r="N53" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
@@ -3920,7 +4076,7 @@
         <v>426</v>
       </c>
       <c r="M54" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N54" t="s">
         <v>411</v>
@@ -3963,6 +4119,12 @@
       <c r="L55" t="s">
         <v>426</v>
       </c>
+      <c r="M55" t="s">
+        <v>438</v>
+      </c>
+      <c r="N55" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
@@ -4002,7 +4164,7 @@
         <v>426</v>
       </c>
       <c r="M56" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N56" t="s">
         <v>411</v>
@@ -4045,6 +4207,12 @@
       <c r="L57" t="s">
         <v>426</v>
       </c>
+      <c r="M57" t="s">
+        <v>438</v>
+      </c>
+      <c r="N57" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
@@ -4084,7 +4252,7 @@
         <v>426</v>
       </c>
       <c r="M58" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N58" t="s">
         <v>411</v>
@@ -4127,6 +4295,12 @@
       <c r="L59" t="s">
         <v>426</v>
       </c>
+      <c r="M59" t="s">
+        <v>438</v>
+      </c>
+      <c r="N59" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
@@ -4166,7 +4340,7 @@
         <v>426</v>
       </c>
       <c r="M60" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N60" t="s">
         <v>421</v>
@@ -4209,6 +4383,12 @@
       <c r="L61" t="s">
         <v>426</v>
       </c>
+      <c r="M61" t="s">
+        <v>438</v>
+      </c>
+      <c r="N61" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
@@ -4248,7 +4428,7 @@
         <v>424</v>
       </c>
       <c r="M62" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N62" t="s">
         <v>414</v>
@@ -4291,6 +4471,12 @@
       <c r="L63" t="s">
         <v>426</v>
       </c>
+      <c r="M63" t="s">
+        <v>437</v>
+      </c>
+      <c r="N63" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
@@ -4330,7 +4516,7 @@
         <v>426</v>
       </c>
       <c r="M64" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N64" t="s">
         <v>421</v>
@@ -4373,6 +4559,12 @@
       <c r="L65" t="s">
         <v>424</v>
       </c>
+      <c r="M65" t="s">
+        <v>431</v>
+      </c>
+      <c r="N65" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
@@ -4412,7 +4604,7 @@
         <v>424</v>
       </c>
       <c r="M66" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N66" t="s">
         <v>405</v>
@@ -4455,6 +4647,12 @@
       <c r="L67" t="s">
         <v>426</v>
       </c>
+      <c r="M67" t="s">
+        <v>437</v>
+      </c>
+      <c r="N67" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
@@ -4494,7 +4692,7 @@
         <v>423</v>
       </c>
       <c r="M68" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N68" t="s">
         <v>417</v>
@@ -4537,6 +4735,12 @@
       <c r="L69" t="s">
         <v>423</v>
       </c>
+      <c r="M69" t="s">
+        <v>440</v>
+      </c>
+      <c r="N69" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
@@ -4576,7 +4780,7 @@
         <v>423</v>
       </c>
       <c r="M70" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s">
         <v>417</v>
@@ -4619,6 +4823,12 @@
       <c r="L71" t="s">
         <v>423</v>
       </c>
+      <c r="M71" t="s">
+        <v>440</v>
+      </c>
+      <c r="N71" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
@@ -4658,7 +4868,7 @@
         <v>424</v>
       </c>
       <c r="M72" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="N72" t="s">
         <v>409</v>
@@ -4701,6 +4911,12 @@
       <c r="L73" t="s">
         <v>423</v>
       </c>
+      <c r="M73" t="s">
+        <v>429</v>
+      </c>
+      <c r="N73" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
@@ -4740,7 +4956,7 @@
         <v>424</v>
       </c>
       <c r="M74" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="N74" t="s">
         <v>409</v>
@@ -4783,6 +4999,12 @@
       <c r="L75" t="s">
         <v>424</v>
       </c>
+      <c r="M75" t="s">
+        <v>430</v>
+      </c>
+      <c r="N75" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
@@ -4822,7 +5044,7 @@
         <v>424</v>
       </c>
       <c r="M76" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="N76" t="s">
         <v>409</v>
@@ -4862,6 +5084,12 @@
       <c r="L77" t="s">
         <v>424</v>
       </c>
+      <c r="M77" t="s">
+        <v>430</v>
+      </c>
+      <c r="N77" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
@@ -4901,7 +5129,7 @@
         <v>426</v>
       </c>
       <c r="M78" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N78" t="s">
         <v>403</v>
@@ -4944,6 +5172,12 @@
       <c r="L79" t="s">
         <v>428</v>
       </c>
+      <c r="M79" t="s">
+        <v>440</v>
+      </c>
+      <c r="N79" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
@@ -4983,13 +5217,13 @@
         <v>425</v>
       </c>
       <c r="M80" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N80" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -5025,6 +5259,12 @@
       </c>
       <c r="L81" t="s">
         <v>426</v>
+      </c>
+      <c r="M81" t="s">
+        <v>434</v>
+      </c>
+      <c r="N81" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
